--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1861865.564322119</v>
+        <v>1857709.378014152</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283177</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>188.9233008009124</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>12.64642299708273</v>
       </c>
       <c r="G2" t="n">
         <v>412.2877386950441</v>
@@ -679,7 +679,7 @@
         <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885176</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906499</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833739</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
@@ -873,19 +873,19 @@
         <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>277.1617509420552</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>2.688938697878246</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>36.30704122735354</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>177.6436033661388</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
         <v>104.4906595130011</v>
@@ -1107,10 +1107,10 @@
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>78.14922718465711</v>
       </c>
       <c r="U7" t="n">
-        <v>242.3618411704826</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>115.2880428708045</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>157.153471405083</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.2964268507295</v>
@@ -1311,7 +1311,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>33.93089591116178</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>121.2822300481162</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>81.11398998229679</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0109307051784</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>245.879692121444</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>218.7872342765205</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695709</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2247,16 +2247,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>19.86507844888251</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>55.52079624060509</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>273.2210290410305</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="27">
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.38427178197995</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2952,19 +2952,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>128.1306638699257</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>35.19779014108429</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.6329842920045</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>20.92847288552876</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417137</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2811815126511032</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>26.1362719570585</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444159</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128544</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>41.16673120696789</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>70.58974991479201</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2399.161149170367</v>
+        <v>887.9329408788699</v>
       </c>
       <c r="C2" t="n">
-        <v>2030.198632229955</v>
+        <v>887.9329408788699</v>
       </c>
       <c r="D2" t="n">
-        <v>1671.932933623204</v>
+        <v>887.9329408788699</v>
       </c>
       <c r="E2" t="n">
-        <v>1286.14468102496</v>
+        <v>887.9329408788699</v>
       </c>
       <c r="F2" t="n">
-        <v>875.1587762353523</v>
+        <v>875.158776235352</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7065149272269</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640841</v>
+        <v>146.9919235640839</v>
       </c>
       <c r="I2" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073758</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>605.2571586872723</v>
+        <v>776.0043429178248</v>
       </c>
       <c r="L2" t="n">
-        <v>842.8799399054635</v>
+        <v>1410.779085423004</v>
       </c>
       <c r="M2" t="n">
-        <v>1138.950506463065</v>
+        <v>1706.849651980607</v>
       </c>
       <c r="N2" t="n">
-        <v>1444.42561269865</v>
+        <v>2012.324758216193</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015283</v>
+        <v>2287.440977532827</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394154</v>
+        <v>2487.74530482193</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466514</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140985</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140985</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2589.992766140985</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>2589.992766140985</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>2589.992766140985</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="X2" t="n">
-        <v>2589.992766140985</v>
+        <v>1278.072272854682</v>
       </c>
       <c r="Y2" t="n">
-        <v>2589.992766140985</v>
+        <v>887.9329408788699</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669849</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615294</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884144</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686806</v>
+        <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093824</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995042</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>198.538474420229</v>
+        <v>460.3590590626825</v>
       </c>
       <c r="L3" t="n">
-        <v>775.2612895234839</v>
+        <v>1037.081874165938</v>
       </c>
       <c r="M3" t="n">
-        <v>1416.284499143378</v>
+        <v>1301.021405661426</v>
       </c>
       <c r="N3" t="n">
-        <v>1701.61836957671</v>
+        <v>1586.355276094759</v>
       </c>
       <c r="O3" t="n">
-        <v>2037.107513972038</v>
+        <v>2215.08392393018</v>
       </c>
       <c r="P3" t="n">
         <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
         <v>2589.992766140986</v>
@@ -4445,7 +4445,7 @@
         <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.95470102812</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.9164947351554</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="C4" t="n">
-        <v>201.9164947351554</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="D4" t="n">
-        <v>51.7998553228197</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="E4" t="n">
-        <v>51.7998553228197</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="F4" t="n">
-        <v>51.7998553228197</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="G4" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H4" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I4" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018396</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.543616615987</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341309</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.982486266671</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092716</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357426</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.38807899347</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.20230936112</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.20230936112</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="S4" t="n">
-        <v>1108.730062521422</v>
+        <v>991.0700018628692</v>
       </c>
       <c r="T4" t="n">
-        <v>884.3189032968598</v>
+        <v>766.6588426383072</v>
       </c>
       <c r="U4" t="n">
-        <v>604.3575387089253</v>
+        <v>477.5222156304092</v>
       </c>
       <c r="V4" t="n">
-        <v>604.3575387089253</v>
+        <v>222.8377274245223</v>
       </c>
       <c r="W4" t="n">
-        <v>604.3575387089253</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="X4" t="n">
-        <v>604.3575387089253</v>
+        <v>220.1216277296958</v>
       </c>
       <c r="Y4" t="n">
-        <v>383.5649595653952</v>
+        <v>220.1216277296958</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1671.186287608629</v>
+        <v>1154.939056628212</v>
       </c>
       <c r="C5" t="n">
-        <v>1302.223770668217</v>
+        <v>1154.939056628212</v>
       </c>
       <c r="D5" t="n">
-        <v>943.9580720614667</v>
+        <v>796.673358021462</v>
       </c>
       <c r="E5" t="n">
-        <v>943.9580720614667</v>
+        <v>410.8851054232178</v>
       </c>
       <c r="F5" t="n">
-        <v>532.9721672718592</v>
+        <v>403.9396046740143</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719911</v>
+        <v>392.2981669145503</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719911</v>
+        <v>88.47363434034855</v>
       </c>
       <c r="I5" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.986887110478</v>
+        <v>189.9868871104771</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135509</v>
+        <v>447.8319447135501</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477383</v>
+        <v>804.6133007477376</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
@@ -4585,34 +4585,34 @@
         <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140985</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140985</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U5" t="n">
-        <v>2410.554782942865</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="V5" t="n">
-        <v>2410.554782942865</v>
+        <v>1881.173470159406</v>
       </c>
       <c r="W5" t="n">
-        <v>2057.786127672751</v>
+        <v>1528.404814889292</v>
       </c>
       <c r="X5" t="n">
-        <v>2057.786127672751</v>
+        <v>1154.939056628212</v>
       </c>
       <c r="Y5" t="n">
-        <v>2057.786127672751</v>
+        <v>1154.939056628212</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>301.9467472258287</v>
+        <v>598.8031573431329</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2586963421434</v>
+        <v>896.1151064594476</v>
       </c>
       <c r="M6" t="n">
-        <v>965.5645858344687</v>
+        <v>1262.420995951773</v>
       </c>
       <c r="N6" t="n">
-        <v>1355.974147160211</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O6" t="n">
-        <v>1690.902827875742</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P6" t="n">
         <v>2237.235965858066</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.1721064688402</v>
+        <v>1087.825563768798</v>
       </c>
       <c r="C7" t="n">
-        <v>304.2359235409332</v>
+        <v>918.8893808408909</v>
       </c>
       <c r="D7" t="n">
-        <v>304.2359235409332</v>
+        <v>768.7727414285552</v>
       </c>
       <c r="E7" t="n">
-        <v>304.2359235409332</v>
+        <v>620.859647846162</v>
       </c>
       <c r="F7" t="n">
-        <v>157.3459760430229</v>
+        <v>473.9697003482516</v>
       </c>
       <c r="G7" t="n">
-        <v>157.3459760430229</v>
+        <v>305.993511610141</v>
       </c>
       <c r="H7" t="n">
         <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080546</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
@@ -4752,25 +4752,25 @@
         <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916872</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T7" t="n">
-        <v>1348.412641916872</v>
+        <v>1269.474028599037</v>
       </c>
       <c r="U7" t="n">
-        <v>1103.602701340627</v>
+        <v>1269.474028599037</v>
       </c>
       <c r="V7" t="n">
-        <v>1103.602701340627</v>
+        <v>1269.474028599037</v>
       </c>
       <c r="W7" t="n">
-        <v>1103.602701340627</v>
+        <v>1269.474028599037</v>
       </c>
       <c r="X7" t="n">
-        <v>875.61315044261</v>
+        <v>1269.474028599037</v>
       </c>
       <c r="Y7" t="n">
-        <v>654.8205712990799</v>
+        <v>1269.474028599037</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1671.186287608629</v>
+        <v>439.7017965548604</v>
       </c>
       <c r="C8" t="n">
-        <v>1302.223770668217</v>
+        <v>439.7017965548604</v>
       </c>
       <c r="D8" t="n">
-        <v>943.9580720614667</v>
+        <v>439.7017965548604</v>
       </c>
       <c r="E8" t="n">
-        <v>943.9580720614667</v>
+        <v>439.7017965548604</v>
       </c>
       <c r="F8" t="n">
-        <v>532.9721672718592</v>
+        <v>432.7562958056569</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719911</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
         <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135507</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
         <v>1233.270741187502</v>
@@ -4825,31 +4825,31 @@
         <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140985</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140985</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140985</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V8" t="n">
-        <v>2431.251885933831</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="W8" t="n">
-        <v>2431.251885933831</v>
+        <v>1319.75945534812</v>
       </c>
       <c r="X8" t="n">
-        <v>2057.786127672751</v>
+        <v>946.2936970870403</v>
       </c>
       <c r="Y8" t="n">
-        <v>2057.786127672751</v>
+        <v>556.1543651112286</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096208</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>688.5974568552863</v>
+        <v>573.7192355186005</v>
       </c>
       <c r="L9" t="n">
-        <v>985.909405971601</v>
+        <v>871.0311846349152</v>
       </c>
       <c r="M9" t="n">
-        <v>1352.215295463926</v>
+        <v>1237.337074127241</v>
       </c>
       <c r="N9" t="n">
-        <v>1742.624856789669</v>
+        <v>1627.746635452983</v>
       </c>
       <c r="O9" t="n">
-        <v>2077.5535375052</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P9" t="n">
-        <v>2327.030265370218</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>473.9697003482516</v>
+        <v>982.2794430485947</v>
       </c>
       <c r="C10" t="n">
-        <v>473.9697003482516</v>
+        <v>813.3432601206878</v>
       </c>
       <c r="D10" t="n">
-        <v>473.9697003482516</v>
+        <v>663.226620708352</v>
       </c>
       <c r="E10" t="n">
-        <v>473.9697003482516</v>
+        <v>515.3135271259589</v>
       </c>
       <c r="F10" t="n">
-        <v>473.9697003482516</v>
+        <v>368.4235796280485</v>
       </c>
       <c r="G10" t="n">
-        <v>305.993511610141</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080546</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1321.927733452885</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1032.809956463283</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>778.1254682573966</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>778.1254682573966</v>
+        <v>1612.710037920382</v>
       </c>
       <c r="X10" t="n">
-        <v>778.1254682573966</v>
+        <v>1384.720487022364</v>
       </c>
       <c r="Y10" t="n">
-        <v>655.6181651784914</v>
+        <v>1163.927907878834</v>
       </c>
     </row>
     <row r="11">
@@ -5035,40 +5035,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969299</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>808.8888553856862</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>639.9526724577793</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>489.8360330454435</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1870.758369404391</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.073881198504</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1326.656711161544</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1098.667160263526</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263526</v>
+        <v>990.5373202159259</v>
       </c>
     </row>
     <row r="14">
@@ -5269,58 +5269,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516145</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438167</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U16" t="n">
-        <v>1729.097755135313</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111695</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913855</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>738.7889117913855</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1918.29660558528</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2341.919755080348</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>702.4944101284095</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>533.5582272005026</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>383.4415877881669</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>923.2869892719397</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>702.4944101284095</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,52 +5740,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
         <v>1072.713683962606</v>
@@ -5846,10 +5846,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.6725264685181</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406112</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282754</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797193</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987578</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="23">
@@ -5971,46 +5971,46 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192601</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398594</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6186,13 +6186,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1157.720528233637</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>929.7309773356195</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2426.372910063109</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2243.518075718013</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2023.916610740955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6663,10 +6663,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,40 +6682,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>526.5658826424041</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>378.6527890600109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>378.6527890600109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>211.4566897748909</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6931,7 +6931,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6940,19 +6940,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1089.917939501689</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C37" t="n">
-        <v>920.9817565737817</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>770.8651171614459</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>622.9520235790528</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>476.0620760811424</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>308.8659767960224</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2425.823211978716</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2242.968377633621</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>2023.366912656562</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W37" t="n">
-        <v>1720.348534373476</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X37" t="n">
-        <v>1492.358983475458</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y37" t="n">
-        <v>1271.566404331928</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7168,58 +7168,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192615</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756268</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756268</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756268</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438163</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998423</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.9745311434802</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C40" t="n">
-        <v>701.0383482155734</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D40" t="n">
-        <v>550.9217088032376</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E40" t="n">
-        <v>403.0086152208445</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358027</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358027</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235174</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258115</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U40" t="n">
-        <v>2044.506784258115</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V40" t="n">
-        <v>1789.822296052228</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.405126015267</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.41557511725</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.62299597372</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273916</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.230692780394</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516149</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348534</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.53808894596</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C43" t="n">
-        <v>599.6019060180531</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D43" t="n">
-        <v>449.4852666057174</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="F43" t="n">
-        <v>261.012762333092</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797193</v>
+        <v>247.2061440917674</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.46108051051</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854708</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854708</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817747</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.97913291973</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761997</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="44">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2383.002557118213</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>2877.307316025036</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3474.685803651587</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>4102.283767206194</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098237</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4194208819168</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>664.3027814695811</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>516.389687887188</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>369.4997403892776</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>202.3036411041575</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7842,16 +7842,16 @@
         <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783593</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640063</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>151.6735093079815</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>401.1635972595832</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7996,13 +7996,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,22 +8060,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660675</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>97.66080065037352</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>138.6886171670653</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>173.7639243740396</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>299.8549597144495</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>148.4266296017847</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>119.3759750973111</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.1843750390658</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>65.31997266427238</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1735436840658</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>40.30478226780019</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>6.922421112516702</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>126.5688841976867</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>125.5054897610395</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>13.30196929556047</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>45.99097492814173</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>39.11615722870218</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>105.0969227051396</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>8.661728554219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>45.44677382459292</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.1398665102801</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856549</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012162</v>
+        <v>40.23897475306318</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>105.2672314396013</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>69.70496293143188</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856549</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>916269.5761914151</v>
+        <v>916269.576191415</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>893263.3104955618</v>
+        <v>893263.3104955617</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>873172.0903518677</v>
+        <v>873172.0903518676</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>873172.0903518677</v>
+        <v>873172.0903518676</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>873172.0903518675</v>
+        <v>873172.0903518676</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>873172.0903518677</v>
+        <v>873172.0903518676</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>873172.0903518678</v>
+        <v>873172.0903518676</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583916</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583911</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583914</v>
-      </c>
       <c r="D2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="I2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.954790754</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907545</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907541</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753973</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898935</v>
+        <v>172764.3597898925</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457512</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.84042391992989e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260478</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042353</v>
+        <v>130884.4569042352</v>
       </c>
       <c r="N3" t="n">
-        <v>7.949067821755306e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151601</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
@@ -26429,37 +26429,37 @@
         <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695011</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695076</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695032</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699086</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.08936150958</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150958</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26487,7 +26487,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26505,10 +26505,10 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-634610.6549291572</v>
+        <v>-634610.6549291577</v>
       </c>
       <c r="C6" t="n">
-        <v>158890.9907817403</v>
+        <v>158890.990781741</v>
       </c>
       <c r="D6" t="n">
-        <v>331655.3505716336</v>
+        <v>331655.3505716337</v>
       </c>
       <c r="E6" t="n">
-        <v>-63474.923310599</v>
+        <v>-63822.30256495578</v>
       </c>
       <c r="F6" t="n">
-        <v>437413.9444351521</v>
+        <v>437066.565180795</v>
       </c>
       <c r="G6" t="n">
-        <v>437413.9444351519</v>
+        <v>437066.5651807947</v>
       </c>
       <c r="H6" t="n">
-        <v>437413.9444351518</v>
+        <v>437066.5651807946</v>
       </c>
       <c r="I6" t="n">
-        <v>437413.9444351519</v>
+        <v>437066.5651807946</v>
       </c>
       <c r="J6" t="n">
-        <v>267999.9276091041</v>
+        <v>267652.5483547468</v>
       </c>
       <c r="K6" t="n">
-        <v>437413.9444351517</v>
+        <v>437066.5651807946</v>
       </c>
       <c r="L6" t="n">
-        <v>437413.9444351516</v>
+        <v>437066.5651807946</v>
       </c>
       <c r="M6" t="n">
-        <v>306529.4875309164</v>
+        <v>306182.1082765596</v>
       </c>
       <c r="N6" t="n">
-        <v>437413.9444351514</v>
+        <v>437066.565180795</v>
       </c>
       <c r="O6" t="n">
-        <v>437413.9444351521</v>
+        <v>437066.5651807946</v>
       </c>
       <c r="P6" t="n">
-        <v>437413.9444351524</v>
+        <v>437066.565180795</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976094</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26773,10 +26773,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341675</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="P3" t="n">
         <v>1367.975500341674</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26825,10 +26825,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976094</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.725434152235</v>
+        <v>189.7254341522339</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918297</v>
+        <v>428.269109691829</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.62346127016794e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644023</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352456</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644023</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644023</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>193.8105408625682</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>394.2296227446287</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994863</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519699</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>9.083509795763803</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>283.8340596387127</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>28.52852422032615</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>73.39983241103641</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,19 +27779,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27827,10 +27827,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>142.5560015287813</v>
       </c>
       <c r="U7" t="n">
-        <v>43.86475804922307</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>267.4457987926761</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>170.5987870650519</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>252.5921024254292</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>97.30242330397861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30234,7 +30234,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.78706478128696e-12</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30425,7 +30425,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.352696229645516e-12</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.01499882009089</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625584</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066894</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611368</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014935</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682848</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658682</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485893</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775954</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330903</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325345</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282122</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494788</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072711</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674103</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743148</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307769</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859907</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261555</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605109</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911971</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.557742824073</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257153</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433295</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028908</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.157834152643</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969221</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993423</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364542</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651427</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351906</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777201</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855586</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711385</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600312</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932504</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840044</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184399</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351507</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.247124431139</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519959</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567076</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965185</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189609</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31287,40 +31287,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,43 +31363,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,43 +31442,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31524,40 +31524,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839332</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,43 +31600,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583802</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675031</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315579</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470011</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315818</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,43 +31679,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984512</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881265</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>620.1193660647489</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>244.0266243181822</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.2560498238267</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>156.3072281639541</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>558.3177848342789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,19 +33259,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33280,13 +33280,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348437</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135344</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.544175081758</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175681</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159432</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460034</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236513</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669226</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420757</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868561</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.279049007179</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437247</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485293</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418562</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742442</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121572</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869279</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532769</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348437</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135344</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.544175081758</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175681</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159432</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460034</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236513</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669226</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043728</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.0736191065153</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.307619600775</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420757</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422589</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473077</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862126</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.279049007179</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>361.7519118779073</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,16 +34234,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418562</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742442</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937735</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275956</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189905</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121572</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869279</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796263</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.602080235518</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588156</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392048</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.676771792006</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515929</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532769</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467223</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34450,10 +34450,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520769</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>315.1028144241378</v>
+        <v>487.5747176873218</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315063</v>
+        <v>641.1866085910904</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410121</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692773</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269026</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938085</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185455</v>
+        <v>103.2802639586414</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138484</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932396</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>122.6495881517965</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840959</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352463</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407397</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>338.8779236316444</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689364</v>
+        <v>312.758274696065</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168693</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883082</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452556</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203474</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.582592255091</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.090032063233</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324796</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000442</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944464</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915731</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>444.653913487342</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>362.3108833671838</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
-        <v>551.8516545275997</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35102,19 +35102,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153408</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,28 +35254,28 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>453.0121960057227</v>
+        <v>336.9735885949289</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821469</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.4056613270733</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.33729477225505</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35339,19 +35339,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>477.9853321427306</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>101.8925903961639</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396399</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>213.2742757378053</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>22.33282074962379</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>426.9760727509455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36928,13 +36928,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317398</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396423</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367775</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462694</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243166</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924731</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.158224775409</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648378</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238457</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992803</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789222</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572999058</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317398</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396423</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367775</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462694</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902954</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243166</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683818</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924731</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774986</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.158224775409</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678999</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674335</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238457</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>219.1556674334629</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789222</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191317</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1857709.378014152</v>
+        <v>1859469.908316938</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.64642299708273</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>38.15051078468365</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1044530022292</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>2.688938697878246</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>74.03593649474006</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>250.0991447312389</v>
       </c>
       <c r="G5" t="n">
         <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>36.30704122735354</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>78.14922718465711</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>181.0919561226081</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>115.2880428708045</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.8355654476797</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>35.78085458078396</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>33.93089591116178</v>
+        <v>95.73666324888987</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>81.11398998229679</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>134.5665975534137</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>41.02686156550228</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>4.974488840439133</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>19.86507844888251</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>83.06560892428527</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>232.7791955207212</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>4.019807611472247</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1.594095449514112</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.92847288552876</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>26.1362719570585</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>70.58974991479201</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>174.1401868743384</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>137.9792024346624</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>185.4048731212358</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>887.9329408788699</v>
+        <v>1228.549845139068</v>
       </c>
       <c r="C2" t="n">
-        <v>887.9329408788699</v>
+        <v>859.5873281986562</v>
       </c>
       <c r="D2" t="n">
-        <v>887.9329408788699</v>
+        <v>501.3216295919057</v>
       </c>
       <c r="E2" t="n">
-        <v>887.9329408788699</v>
+        <v>501.3216295919057</v>
       </c>
       <c r="F2" t="n">
-        <v>875.158776235352</v>
+        <v>90.33572480229816</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7065149272266</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640839</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
@@ -4336,19 +4336,19 @@
         <v>776.0043429178248</v>
       </c>
       <c r="L2" t="n">
-        <v>1410.779085423004</v>
+        <v>1013.627124136017</v>
       </c>
       <c r="M2" t="n">
-        <v>1706.849651980607</v>
+        <v>1309.69769069362</v>
       </c>
       <c r="N2" t="n">
-        <v>2012.324758216193</v>
+        <v>1802.132917462887</v>
       </c>
       <c r="O2" t="n">
-        <v>2287.440977532827</v>
+        <v>2077.249136779522</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.74530482193</v>
+        <v>2277.553464068625</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4357,25 +4357,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077746</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459332</v>
+        <v>2336.351904522572</v>
       </c>
       <c r="V2" t="n">
-        <v>1651.538031115761</v>
+        <v>2005.289017179001</v>
       </c>
       <c r="W2" t="n">
-        <v>1651.538031115761</v>
+        <v>2005.289017179001</v>
       </c>
       <c r="X2" t="n">
-        <v>1278.072272854682</v>
+        <v>2005.289017179001</v>
       </c>
       <c r="Y2" t="n">
-        <v>887.9329408788699</v>
+        <v>1615.14968520319</v>
       </c>
     </row>
     <row r="3">
@@ -4391,16 +4391,16 @@
         <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669847</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615291</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884142</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686807</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
         <v>85.9974213009382</v>
@@ -4418,16 +4418,16 @@
         <v>1037.081874165938</v>
       </c>
       <c r="M3" t="n">
-        <v>1301.021405661426</v>
+        <v>1304.992176928754</v>
       </c>
       <c r="N3" t="n">
-        <v>1586.355276094759</v>
+        <v>1590.326047362088</v>
       </c>
       <c r="O3" t="n">
-        <v>2215.08392393018</v>
+        <v>1829.130999113547</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4445,7 +4445,7 @@
         <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028119</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.1216277296958</v>
+        <v>833.9774911502419</v>
       </c>
       <c r="C4" t="n">
-        <v>220.1216277296958</v>
+        <v>665.041308222335</v>
       </c>
       <c r="D4" t="n">
-        <v>220.1216277296958</v>
+        <v>514.9246688099993</v>
       </c>
       <c r="E4" t="n">
-        <v>220.1216277296958</v>
+        <v>367.0115752276062</v>
       </c>
       <c r="F4" t="n">
         <v>220.1216277296958</v>
@@ -4512,28 +4512,28 @@
         <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1193.542248702568</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>991.0700018628692</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>766.6588426383072</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>477.5222156304092</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="V4" t="n">
-        <v>222.8377274245223</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="W4" t="n">
-        <v>220.1216277296958</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="X4" t="n">
-        <v>220.1216277296958</v>
+        <v>1236.418535124012</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.1216277296958</v>
+        <v>1015.625955980482</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1154.939056628212</v>
+        <v>1494.573630095285</v>
       </c>
       <c r="C5" t="n">
-        <v>1154.939056628212</v>
+        <v>1125.611113154873</v>
       </c>
       <c r="D5" t="n">
-        <v>796.673358021462</v>
+        <v>767.3454145481226</v>
       </c>
       <c r="E5" t="n">
-        <v>410.8851054232178</v>
+        <v>381.5571619498783</v>
       </c>
       <c r="F5" t="n">
-        <v>403.9396046740143</v>
+        <v>128.9317632314552</v>
       </c>
       <c r="G5" t="n">
-        <v>392.2981669145503</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H5" t="n">
-        <v>88.47363434034855</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104771</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135501</v>
+        <v>447.8319447135514</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477376</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
@@ -4606,13 +4606,13 @@
         <v>1881.173470159406</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.404814889292</v>
+        <v>1881.173470159406</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.939056628212</v>
+        <v>1881.173470159406</v>
       </c>
       <c r="Y5" t="n">
-        <v>1154.939056628212</v>
+        <v>1881.173470159406</v>
       </c>
     </row>
     <row r="6">
@@ -4631,31 +4631,31 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431329</v>
+        <v>563.7673318682815</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594476</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951773</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N6" t="n">
         <v>1652.830557277516</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.825563768798</v>
+        <v>833.6319074814764</v>
       </c>
       <c r="C7" t="n">
-        <v>918.8893808408909</v>
+        <v>664.6957245535696</v>
       </c>
       <c r="D7" t="n">
-        <v>768.7727414285552</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="E7" t="n">
-        <v>620.859647846162</v>
+        <v>366.6659915588407</v>
       </c>
       <c r="F7" t="n">
-        <v>473.9697003482516</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G7" t="n">
-        <v>305.993511610141</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1348.412641916873</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1269.474028599037</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1269.474028599037</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>1269.474028599037</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W7" t="n">
-        <v>1269.474028599037</v>
+        <v>1464.062502353264</v>
       </c>
       <c r="X7" t="n">
-        <v>1269.474028599037</v>
+        <v>1236.072951455246</v>
       </c>
       <c r="Y7" t="n">
-        <v>1269.474028599037</v>
+        <v>1015.280372311716</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>439.7017965548604</v>
+        <v>1652.934136166469</v>
       </c>
       <c r="C8" t="n">
-        <v>439.7017965548604</v>
+        <v>1283.971619226057</v>
       </c>
       <c r="D8" t="n">
-        <v>439.7017965548604</v>
+        <v>925.7059206193069</v>
       </c>
       <c r="E8" t="n">
-        <v>439.7017965548604</v>
+        <v>539.9176680210627</v>
       </c>
       <c r="F8" t="n">
-        <v>432.7562958056569</v>
+        <v>128.9317632314551</v>
       </c>
       <c r="G8" t="n">
-        <v>421.1148580461929</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H8" t="n">
         <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104781</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135511</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L8" t="n">
         <v>804.6133007477383</v>
@@ -4825,31 +4825,31 @@
         <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S8" t="n">
         <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2257.170226019558</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.590997961805</v>
+        <v>2429.673308206402</v>
       </c>
       <c r="V8" t="n">
-        <v>1672.528110618234</v>
+        <v>2429.673308206402</v>
       </c>
       <c r="W8" t="n">
-        <v>1319.75945534812</v>
+        <v>2429.673308206402</v>
       </c>
       <c r="X8" t="n">
-        <v>946.2936970870403</v>
+        <v>2429.673308206402</v>
       </c>
       <c r="Y8" t="n">
-        <v>556.1543651112286</v>
+        <v>2039.533976230591</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J9" t="n">
         <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>573.7192355186005</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L9" t="n">
-        <v>871.0311846349152</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.337074127241</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1627.746635452983</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>1962.675316168515</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2212.152044033533</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.977948259489</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
         <v>2562.061870084021</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>982.2794430485947</v>
+        <v>919.8493750306872</v>
       </c>
       <c r="C10" t="n">
-        <v>813.3432601206878</v>
+        <v>750.9131921027803</v>
       </c>
       <c r="D10" t="n">
-        <v>663.226620708352</v>
+        <v>600.7965526904445</v>
       </c>
       <c r="E10" t="n">
-        <v>515.3135271259589</v>
+        <v>452.8834591080514</v>
       </c>
       <c r="F10" t="n">
-        <v>368.4235796280485</v>
+        <v>305.993511610141</v>
       </c>
       <c r="G10" t="n">
-        <v>200.4473908899379</v>
+        <v>305.993511610141</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -5001,13 +5001,13 @@
         <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>1612.710037920382</v>
+        <v>1550.279969902474</v>
       </c>
       <c r="X10" t="n">
-        <v>1384.720487022364</v>
+        <v>1322.290419004457</v>
       </c>
       <c r="Y10" t="n">
-        <v>1163.927907878834</v>
+        <v>1101.497839860927</v>
       </c>
     </row>
     <row r="11">
@@ -5132,13 +5132,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>639.9526724577793</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>489.8360330454435</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706076</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797187</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2243.991523718104</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2024.390058741045</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U16" t="n">
-        <v>1735.314832085242</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1480.630343879355</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.213173842395</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443774</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008473</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,13 +5527,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>808.8888553856866</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>639.9526724577797</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>489.836033045444</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>990.5373202159263</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,19 +5764,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>513.8536007400749</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101817</v>
+        <v>344.917417812168</v>
       </c>
       <c r="D22" t="n">
-        <v>422.7903292978459</v>
+        <v>344.917417812168</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812168</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782988</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038375</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797776</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138447</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>695.5020655703146</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>198.027470314254</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1742.330579984527</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1487.64609177864</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6217,31 +6217,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,10 +6472,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6545,16 +6545,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>634.334587849125</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>486.4214942667319</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="35">
@@ -6928,19 +6928,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>559.7594328861248</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>390.823249958218</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2425.823211978716</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2242.968377633621</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2023.366912656562</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1734.29168600076</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1479.607197794873</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1190.190027757912</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>962.2004768598947</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>741.4078977163646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>788.0191461778176</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>637.9025067654818</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2420.562808876161</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7411,7 +7411,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7420,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171301</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C43" t="n">
-        <v>564.5188827892232</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D43" t="n">
-        <v>414.4022433768874</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>414.4022433768874</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>414.4022433768874</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>247.2061440917674</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>2021.163366826619</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473698</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="44">
@@ -7830,22 +7830,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="X46" t="n">
         <v>1501.108204237296</v>
@@ -7984,13 +7984,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>401.1635972595832</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>188.8486065996792</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -7999,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>26.19461818159724</v>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>4.010880068008532</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>138.6886171670653</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740396</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>35.38972270187077</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906577</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>148.4266296017847</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>65.31997266427238</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>122.8084169651565</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23664,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>46.45968844823085</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>176.378588761786</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>141.45947380613</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>126.5688841976867</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864597</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>53.40527886852297</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>62.35543909864944</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>143.8269525734171</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>45.44677382459292</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>40.23897475306318</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>69.70496293143188</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>43.26526345294988</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>114.1584408891656</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>40.30478226780136</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>893263.3104955617</v>
+        <v>893263.3104955618</v>
       </c>
     </row>
     <row r="4">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>873172.0903518676</v>
+        <v>873172.0903518675</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583919</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583912</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583911</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583913</v>
-      </c>
       <c r="E2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="F2" t="n">
         <v>544823.9547907541</v>
       </c>
       <c r="G2" t="n">
+        <v>544823.9547907541</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="I2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="K2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="M2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="I2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="K2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="L2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907541</v>
-      </c>
       <c r="O2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898925</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457506</v>
+        <v>500888.8677457507</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260479</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695034</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695052</v>
@@ -26475,7 +26475,7 @@
         <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-634610.6549291577</v>
+        <v>-634610.6549291575</v>
       </c>
       <c r="C6" t="n">
-        <v>158890.990781741</v>
+        <v>158890.9907817413</v>
       </c>
       <c r="D6" t="n">
-        <v>331655.3505716337</v>
+        <v>331655.3505716335</v>
       </c>
       <c r="E6" t="n">
-        <v>-63822.30256495578</v>
+        <v>-63509.66123603478</v>
       </c>
       <c r="F6" t="n">
-        <v>437066.565180795</v>
+        <v>437379.2065097162</v>
       </c>
       <c r="G6" t="n">
-        <v>437066.5651807947</v>
+        <v>437379.206509716</v>
       </c>
       <c r="H6" t="n">
-        <v>437066.5651807946</v>
+        <v>437379.2065097163</v>
       </c>
       <c r="I6" t="n">
-        <v>437066.5651807946</v>
+        <v>437379.2065097165</v>
       </c>
       <c r="J6" t="n">
-        <v>267652.5483547468</v>
+        <v>267965.1896836685</v>
       </c>
       <c r="K6" t="n">
-        <v>437066.5651807946</v>
+        <v>437379.206509716</v>
       </c>
       <c r="L6" t="n">
-        <v>437066.5651807946</v>
+        <v>437379.206509716</v>
       </c>
       <c r="M6" t="n">
-        <v>306182.1082765596</v>
+        <v>306494.7496054806</v>
       </c>
       <c r="N6" t="n">
-        <v>437066.565180795</v>
+        <v>437379.2065097161</v>
       </c>
       <c r="O6" t="n">
-        <v>437066.5651807946</v>
+        <v>437379.2065097163</v>
       </c>
       <c r="P6" t="n">
-        <v>437066.565180795</v>
+        <v>437379.206509716</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26962,19 +26962,19 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522339</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.269109691829</v>
+        <v>428.2691096918292</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>394.2296227446287</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>374.1372279103605</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>283.8340596387127</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>151.6737188942971</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>156.7769010104725</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>28.52852422032615</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>142.5560015287813</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>105.4310422139829</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>267.4457987926761</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>215.2625811963913</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>252.5921024254292</v>
+        <v>190.7863350877011</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-4.796661474883757e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28982,7 +28982,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31287,40 +31287,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,43 +31363,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,43 +31442,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31524,25 +31524,25 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
         <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
         <v>407.9506271086971</v>
@@ -31551,7 +31551,7 @@
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
         <v>16.53694361837063</v>
@@ -31603,22 +31603,22 @@
         <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
         <v>385.9711022274806</v>
@@ -31630,13 +31630,13 @@
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
         <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31700,10 +31700,10 @@
         <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
         <v>76.19324275662508</v>
@@ -31712,10 +31712,10 @@
         <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,19 +32083,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>543.5992845760902</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201445</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>246.2467565146292</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -34704,13 +34704,13 @@
         <v>487.5747176873218</v>
       </c>
       <c r="L2" t="n">
-        <v>641.1866085910904</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
         <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>497.4093199689573</v>
       </c>
       <c r="O2" t="n">
         <v>277.8951710269035</v>
@@ -34719,7 +34719,7 @@
         <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586414</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>270.6164674371881</v>
       </c>
       <c r="N3" t="n">
         <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>312.758274696065</v>
+        <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915731</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671838</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174897</v>
+        <v>335.7048228193603</v>
       </c>
       <c r="M6" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656114</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978363</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35102,19 +35102,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35178,25 +35178,25 @@
         <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
         <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
         <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>336.9735885949289</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P9" t="n">
         <v>251.9966948131503</v>
@@ -35275,7 +35275,7 @@
         <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
-        <v>25.33729477225505</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978363</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35348,10 +35348,10 @@
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>405.0449047962161</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>108.4053175402702</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295643</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
